--- a/biology/Botanique/Mabea_(genre)/Mabea_(genre).xlsx
+++ b/biology/Botanique/Mabea_(genre)/Mabea_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mabea est un genre de plantes à fleurs de la famille des Euphorbiaceae comportant 39 espèces néotropicales. Ce sont des arbustes ou arbrisseaux. L'espèce type est Mabea piriri Aubl..
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Mabea regroupe des arbres ou arbustes monoïques, parfois grimpants, ou lianescents, produisant un latex blanc, et portant des trichomes multicellulaires, dendroïdes ou rarement unisériés, rougeâtres à brunâtres ou pâles. Les branches inférieures sont verticillées, et les terminales plutôt alternes. Les feuilles sont alternes, simples, glabres ou pubescentes, à limbes entiers ou dentés avec des dents glandulaires. Elles sont le plus souvent caduques, parfois révolutées, à nervation tertiaire réticulée, à face supérieure dépourvue de glandes, à face inférieure papilleuse, glauque ou lisse, avec 0–40 glandes marginales ou submarginales de chaque côté, et les glandes basales parfois agrandies. Les stipules sont dentées à la base et glanduleuses à l'apex, entières, caduques. Les pétioles mesurent 4–15 mm de long. les inflorescences sont allongées, terminales et axillaires, thyrsoïde simple ou composé, jaunâtre, brunâtre ou rouge foncé, rameaux latéraux sous-tendus par des bractées foliacées. Les bractées peuvent porter une paire de glandes elliptiques-cylindriques. Les fleurs staminées forment des cymules de (1–)3–5(–7) fleurs à l'apex tandis que les fleurs pistillées sont solitaires à la base de la bractée et parfois accompagnées de fleurs staminées supplémentaires. Les fleurs staminées sont dressées, dépourvues de bractéoles, avec des pédicelles distincts, longs de 3–120 mm s'allongeant à peine lors de la floraison. Les périanthe comportant 5 ou 6 lobes, est en partie conné. On compte environ 3–80 étamines par fleur (leurs filets libres peuvent être absents ou dépasser la taille des anthères libres également). On n'observe ni disque ni pistillode. Les fleurs pistillées peuvent porter des bractéoles qui seront alors irrégulières, avec des pédicelles distincts, un périanthe à 6 lobes (très rarement 3), conné à la base, sont dépourvues de disque ou de staminodes. L'ovaire, comportant 3 loges, est lisse ou avec 3 paires de protubérances, avec un indument dense, persistant, court, pâle et parfois en plus avec des trichomes bruns et lancéolés. La colonne du style est longue de 1–21(–33) mm, et porte 3 stigmates recourbés et non divisés. Le fruit est un schizocarpe sec, septicide, globuleux à transversalement ellipsoïde, sillonné ou non. Sont péricarpe est épais et ligneux. L'exocarpe est lisse, ou porte rarement 3 paires de protubérances, est couvert d'une pubescence dense et persistante. Les méricarpes comportent des septa distincts et la columelle est légèrement ailée. On compte 3 graines par fruit : elles sont globuleuses à ellipsoïdes, avec ou sans caroncule, un testa sec, lisse, brun ou parfois panaché[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Mabea regroupe des arbres ou arbustes monoïques, parfois grimpants, ou lianescents, produisant un latex blanc, et portant des trichomes multicellulaires, dendroïdes ou rarement unisériés, rougeâtres à brunâtres ou pâles. Les branches inférieures sont verticillées, et les terminales plutôt alternes. Les feuilles sont alternes, simples, glabres ou pubescentes, à limbes entiers ou dentés avec des dents glandulaires. Elles sont le plus souvent caduques, parfois révolutées, à nervation tertiaire réticulée, à face supérieure dépourvue de glandes, à face inférieure papilleuse, glauque ou lisse, avec 0–40 glandes marginales ou submarginales de chaque côté, et les glandes basales parfois agrandies. Les stipules sont dentées à la base et glanduleuses à l'apex, entières, caduques. Les pétioles mesurent 4–15 mm de long. les inflorescences sont allongées, terminales et axillaires, thyrsoïde simple ou composé, jaunâtre, brunâtre ou rouge foncé, rameaux latéraux sous-tendus par des bractées foliacées. Les bractées peuvent porter une paire de glandes elliptiques-cylindriques. Les fleurs staminées forment des cymules de (1–)3–5(–7) fleurs à l'apex tandis que les fleurs pistillées sont solitaires à la base de la bractée et parfois accompagnées de fleurs staminées supplémentaires. Les fleurs staminées sont dressées, dépourvues de bractéoles, avec des pédicelles distincts, longs de 3–120 mm s'allongeant à peine lors de la floraison. Les périanthe comportant 5 ou 6 lobes, est en partie conné. On compte environ 3–80 étamines par fleur (leurs filets libres peuvent être absents ou dépasser la taille des anthères libres également). On n'observe ni disque ni pistillode. Les fleurs pistillées peuvent porter des bractéoles qui seront alors irrégulières, avec des pédicelles distincts, un périanthe à 6 lobes (très rarement 3), conné à la base, sont dépourvues de disque ou de staminodes. L'ovaire, comportant 3 loges, est lisse ou avec 3 paires de protubérances, avec un indument dense, persistant, court, pâle et parfois en plus avec des trichomes bruns et lancéolés. La colonne du style est longue de 1–21(–33) mm, et porte 3 stigmates recourbés et non divisés. Le fruit est un schizocarpe sec, septicide, globuleux à transversalement ellipsoïde, sillonné ou non. Sont péricarpe est épais et ligneux. L'exocarpe est lisse, ou porte rarement 3 paires de protubérances, est couvert d'une pubescence dense et persistante. Les méricarpes comportent des septa distincts et la columelle est légèrement ailée. On compte 3 graines par fruit : elles sont globuleuses à ellipsoïdes, avec ou sans caroncule, un testa sec, lisse, brun ou parfois panaché
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Mabea est présent de l'Amérique centrale au nord de l'Amérique du Sud.
 </t>
@@ -573,7 +589,9 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 .
@@ -587,7 +605,7 @@
 PIST. Germen ovatum, oblongum, ſubtrigonum, calice obvolutum. Stylus longus. Stigmata tria, filiformia, ſpiralicer intorta. 
 PER. Capsula ſubrotunda, crigona, cortice craſſo tecta, trilocularis, loculis bivalvibus ; valvulis elaſticé dehiſcentibus. 
 SEM. unicum, ſubrotundum, rufeſcens, maculis cinereis variegatum. »
-— Fusée-Aublet, 1775[3].</t>
+— Fusée-Aublet, 1775.</t>
         </is>
       </c>
     </row>
@@ -615,10 +633,48 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[4] :
-Espèces valides
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mabea_(genre)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mabea_(genre)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces valides</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Mabea anadena Pax &amp; K.Hoffm.
 Mabea angularis Hollander
 Mabea angustifolia Spruce ex Benth.
@@ -658,8 +714,43 @@
 Mabea tenorioi Mart.Gord., J.Jiménez Ram. &amp; Cruz Durán
 Mabea trianae Pax
 Mabea uleana Pax &amp; K.Hoffm.
-Taxon non résolu
-Mabea rubrivenium Poepp. &amp; Endl.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mabea_(genre)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mabea_(genre)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxon non résolu</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mabea rubrivenium Poepp. &amp; Endl.
 </t>
         </is>
       </c>
